--- a/Models Tried.xlsx
+++ b/Models Tried.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB7B86-AD88-414E-90EC-7088E636651E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -40,30 +41,74 @@
 LOSS = 0.01</t>
   </si>
   <si>
-    <t>Input(42) - Hidden(168 - TANH) - Output(21 - RELU)
+    <t>Large fluctuations. Even for absolutely stable position the result jumps a lot.</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>MLNN-hidden.h5</t>
+  </si>
+  <si>
+    <t>MLNN.h5</t>
+  </si>
+  <si>
+    <t>Input(42) - Hidden(168 - TANH) - Output(21 - LeakyRELU)
 Learning Rate = 1e-4
 Regularization = 1e-3 for hidden and output.
 NO BIAS USED !!!</t>
   </si>
   <si>
-    <t>Large fluctuations. Even for absolutely stable position the result jumps a lot.</t>
+    <t>Input(42) - Output(21 - LeakyRELU)
+Learning Rate = 1e-4
+Regularization = 1e-3 for output.
+NO BIAS USED !!!</t>
+  </si>
+  <si>
+    <t>MAE = 0.11
+LOSS = 0.011</t>
   </si>
   <si>
     <t>Скачки 5-6см., что много. Коэффициенты модели малые, что даёт возможность сказать, о хорошей непрерывности. Но результаты не очень.
-Использование линейного преобпазования …</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>MLNN-hidden.h5</t>
+Использование линейного преобзования makes worse. Z range (0.23, 0.65). Mean = 0.44. STD = 0.051</t>
+  </si>
+  <si>
+    <t>Скачки 5-6см., что много. Коэффициенты модели малые, что даёт возможность сказать, о хорошей непрерывности. Но результаты не очень.
+Использование линейного преобзования makes worse. Z range (0.22, 0.76). Mean = 0.44. STD = 0.085</t>
+  </si>
+  <si>
+    <t>MLNN_RELU.h5</t>
+  </si>
+  <si>
+    <t>Input(42) - Hidden(128 - RELU) - Dropout(0.2) - Hidden (64 - RELU) -  Output(21 - Linear)
+Learning Rate = 1e-4
+Regularization = 1e-2 for all.
+NO BIAS USED !!!</t>
+  </si>
+  <si>
+    <t>MAE = 0.11
+LOSS = 0.0142 (mse)</t>
+  </si>
+  <si>
+    <t>Z range (0.35, 0.76). Mean = 0.52. STD = 0.073</t>
+  </si>
+  <si>
+    <t>GradientBoosting</t>
+  </si>
+  <si>
+    <t>100 - Estimators
+0.01 - LR
+3 - depth</t>
+  </si>
+  <si>
+    <t>MSE = 0.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -122,19 +167,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,9 +228,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +314,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,26 +507,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,24 +544,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="130.5" customHeight="1">
+    <row r="2" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -479,12 +622,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -492,12 +635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Models Tried.xlsx
+++ b/Models Tried.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB7B86-AD88-414E-90EC-7088E636651E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -103,12 +102,28 @@
   <si>
     <t>MSE = 0.03</t>
   </si>
+  <si>
+    <t>gradient_boosting_model.joblib</t>
+  </si>
+  <si>
+    <t>Low fluctuations. Good results for stable position.</t>
+  </si>
+  <si>
+    <t>STD = 0.033
+No jumps almost.</t>
+  </si>
+  <si>
+    <t>KAN</t>
+  </si>
+  <si>
+    <t>Bad results.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +187,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,9 +243,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +277,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,27 +311,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,16 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
@@ -524,7 +503,7 @@
     <col min="6" max="6" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="130.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -564,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="105">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -604,7 +583,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -613,6 +595,20 @@
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -622,12 +618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -635,12 +631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Models Tried.xlsx
+++ b/Models Tried.xlsx
@@ -109,14 +109,14 @@
     <t>Low fluctuations. Good results for stable position.</t>
   </si>
   <si>
+    <t>KAN</t>
+  </si>
+  <si>
+    <t>Bad results.</t>
+  </si>
+  <si>
     <t>STD = 0.033
-No jumps almost.</t>
-  </si>
-  <si>
-    <t>KAN</t>
-  </si>
-  <si>
-    <t>Bad results.</t>
+No jumps almost. However, strane predicts.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,15 +600,15 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1">
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
